--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -656,22 +656,22 @@
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M2" t="n">
         <v>2.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>1.62</v>
@@ -683,7 +683,7 @@
         <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -778,13 +778,13 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
         <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>2.2</v>
@@ -793,7 +793,7 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
@@ -802,10 +802,10 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>5.5</v>
@@ -921,7 +921,7 @@
         <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -942,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>26</v>
@@ -978,7 +978,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
@@ -1443,13 +1443,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1470,10 +1470,10 @@
         <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.95</v>
@@ -1485,13 +1485,13 @@
         <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1524,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -1784,10 +1784,10 @@
         <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1873,94 +1873,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="T15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE15" t="n">
         <v>6.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -1995,31 +1995,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2031,7 +2031,7 @@
         <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T16" t="n">
         <v>6.5</v>
@@ -2052,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2061,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2117,94 +2117,94 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
         <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -2239,13 +2239,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2266,16 +2266,16 @@
         <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -2308,7 +2308,7 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE18" t="n">
         <v>7</v>
@@ -2361,19 +2361,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2385,7 +2385,7 @@
         <v>2.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2394,10 +2394,10 @@
         <v>2.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2495,19 +2495,19 @@
         <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2516,10 +2516,10 @@
         <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
         <v>7.5</v>
@@ -2534,10 +2534,10 @@
         <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
         <v>8.5</v>
@@ -2570,7 +2570,7 @@
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2629,7 +2629,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -2641,7 +2641,7 @@
         <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2656,7 +2656,7 @@
         <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -2677,16 +2677,16 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -2727,94 +2727,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H22" t="n">
         <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V22" t="n">
         <v>12</v>
       </c>
       <c r="W22" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -2870,7 +2870,7 @@
         <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O23" t="n">
         <v>2.25</v>
@@ -2882,10 +2882,10 @@
         <v>3.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
@@ -2915,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="n">
         <v>126</v>
@@ -2930,7 +2930,7 @@
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -2971,31 +2971,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
         <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3004,10 +3004,10 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
         <v>9</v>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
@@ -3117,7 +3117,7 @@
         <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3126,13 +3126,13 @@
         <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
@@ -3162,19 +3162,19 @@
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3230,10 +3230,10 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>1.8</v>
@@ -3266,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
@@ -3287,7 +3287,7 @@
         <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3299,7 +3299,7 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -3337,19 +3337,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>1.36</v>
@@ -3358,73 +3358,73 @@
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
         <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T27" t="n">
         <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AE27" t="n">
         <v>7.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
         <v>1.1</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
@@ -3590,85 +3590,85 @@
         <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O29" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V29" t="n">
         <v>10</v>
       </c>
       <c r="W29" t="n">
+        <v>23</v>
+      </c>
+      <c r="X29" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y29" t="n">
         <v>29</v>
       </c>
-      <c r="X29" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>32</v>
-      </c>
       <c r="Z29" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB29" t="n">
         <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -3709,13 +3709,13 @@
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -3775,7 +3775,7 @@
         <v>251</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -3825,94 +3825,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.2</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N31" t="n">
         <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
       </c>
       <c r="Y31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4094,7 +4094,7 @@
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>2.2</v>
@@ -4304,36 +4304,88 @@
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.15</v>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4366,36 +4418,92 @@
           <t>Abha</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>24</v>
+      </c>
+      <c r="X36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4613,10 +4721,10 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>67</v>
@@ -4634,10 +4742,10 @@
         <v>29</v>
       </c>
       <c r="AH39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="n">
         <v>67</v>
@@ -4684,10 +4792,10 @@
         <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -4696,10 +4804,10 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O40" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>2.25</v>
@@ -683,7 +683,7 @@
         <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -698,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>6.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -731,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -775,37 +775,37 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
         <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
         <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
         <v>5.5</v>
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -847,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -894,7 +894,7 @@
         <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>1.93</v>
@@ -909,7 +909,7 @@
         <v>1.17</v>
       </c>
       <c r="M4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="N4" t="n">
         <v>1.53</v>
@@ -921,7 +921,7 @@
         <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -930,10 +930,10 @@
         <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V4" t="n">
         <v>11.75</v>
@@ -942,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>26</v>
@@ -951,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>40</v>
@@ -963,22 +963,22 @@
         <v>200</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1464,10 +1464,10 @@
         <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -1784,10 +1784,10 @@
         <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -1909,7 +1909,7 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1995,13 +1995,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>1.13</v>
@@ -2031,7 +2031,7 @@
         <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T16" t="n">
         <v>6.5</v>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
@@ -2153,7 +2153,7 @@
         <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
         <v>6</v>
@@ -2239,13 +2239,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2361,13 +2361,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2647,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
@@ -2668,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -2977,7 +2977,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3126,10 +3126,10 @@
         <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
         <v>8.5</v>
@@ -3165,7 +3165,7 @@
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3964,10 +3964,10 @@
         <v>3.95</v>
       </c>
       <c r="N32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -3978,55 +3978,55 @@
         <v>2.06</v>
       </c>
       <c r="T32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V32" t="n">
         <v>7</v>
       </c>
-      <c r="V32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH32" t="n">
         <v>50</v>
       </c>
-      <c r="AD32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>60</v>
-      </c>
       <c r="AI32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ32" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4070,13 +4070,13 @@
         <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
         <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
         <v>3.75</v>
@@ -4804,10 +4804,10 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="O40" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -891,49 +891,49 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>11.75</v>
@@ -942,16 +942,16 @@
         <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -960,10 +960,10 @@
         <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF4" t="n">
         <v>11.5</v>
@@ -972,7 +972,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>13.5</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1096,10 +1096,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1443,13 +1443,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1564,9 +1564,15 @@
           <t>Telavi</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1626,9 +1632,15 @@
           <t>Dinamo Tbilisi</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1688,9 +1700,15 @@
           <t>FC Gareji Sagarejo</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1751,13 +1769,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -1873,13 +1891,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -1995,31 +2013,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2117,13 +2135,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2138,16 +2156,16 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
         <v>2.05</v>
@@ -2171,16 +2189,16 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>67</v>
@@ -2198,7 +2216,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
         <v>41</v>
@@ -2239,13 +2257,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2361,13 +2379,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
@@ -2483,7 +2501,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2605,13 +2623,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2727,13 +2745,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -2849,13 +2867,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -2870,10 +2888,10 @@
         <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P23" t="n">
         <v>1.29</v>
@@ -2977,7 +2995,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3099,13 +3117,13 @@
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3221,7 +3239,7 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3337,13 +3355,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3459,19 +3477,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -3581,13 +3599,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3602,10 +3620,10 @@
         <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O29" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3709,13 +3727,13 @@
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -3724,10 +3742,10 @@
         <v>3.4</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="O30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -3736,10 +3754,10 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
         <v>9</v>
@@ -3766,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -3825,7 +3843,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -3947,62 +3965,62 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="N32" t="n">
         <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S32" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="V32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W32" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y32" t="n">
         <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
         <v>45</v>
@@ -4011,10 +4029,10 @@
         <v>250</v>
       </c>
       <c r="AE32" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
         <v>11.25</v>
@@ -4023,10 +4041,10 @@
         <v>50</v>
       </c>
       <c r="AI32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -4082,10 +4100,10 @@
         <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O33" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4661,7 +4679,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
@@ -4804,10 +4822,10 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O40" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -790,10 +790,10 @@
         <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>1.62</v>
@@ -900,10 +900,10 @@
         <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
         <v>1.19</v>
@@ -924,37 +924,37 @@
         <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V4" t="n">
         <v>11.75</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC4" t="n">
         <v>40</v>
@@ -963,22 +963,22 @@
         <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1096,10 +1096,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1449,13 +1449,13 @@
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1470,19 +1470,19 @@
         <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1500,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1512,13 +1512,13 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1527,7 +1527,7 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1575,31 +1575,81 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>14</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1643,31 +1693,81 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>21</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1711,31 +1811,77 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.81</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1769,13 +1915,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -1891,13 +2037,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2013,31 +2159,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2135,7 +2281,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
@@ -2257,13 +2403,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2379,13 +2525,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
@@ -2501,7 +2647,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2516,10 +2662,10 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>2.1</v>
@@ -2623,13 +2769,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2745,13 +2891,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -2778,10 +2924,10 @@
         <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2802,7 +2948,7 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -2820,13 +2966,13 @@
         <v>6.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>26</v>
@@ -2867,13 +3013,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -2882,16 +3028,16 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P23" t="n">
         <v>1.29</v>
@@ -2995,7 +3141,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3117,7 +3263,7 @@
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
@@ -3126,16 +3272,16 @@
         <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3150,7 +3296,7 @@
         <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
@@ -3177,10 +3323,10 @@
         <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE25" t="n">
         <v>6.5</v>
@@ -3239,7 +3385,7 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3355,13 +3501,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3477,31 +3623,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>1.53</v>
@@ -3599,13 +3745,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3620,10 +3766,10 @@
         <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O29" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3721,13 +3867,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
@@ -3742,10 +3888,10 @@
         <v>3.4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O30" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -3843,7 +3989,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4094,16 +4240,16 @@
         <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4679,7 +4825,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
@@ -4801,13 +4947,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
         <v>1.05</v>
@@ -4822,34 +4968,34 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="O40" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T40" t="n">
         <v>7.5</v>
       </c>
       <c r="U40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -4870,7 +5016,7 @@
         <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE40" t="n">
         <v>11</v>
@@ -4879,7 +5025,7 @@
         <v>19</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
         <v>41</v>
@@ -4888,7 +5034,7 @@
         <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -924,28 +924,28 @@
         <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>11.75</v>
       </c>
       <c r="W4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
@@ -954,7 +954,7 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>40</v>
@@ -963,10 +963,10 @@
         <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
@@ -975,10 +975,10 @@
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="H9" t="n">
         <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.17</v>
@@ -1360,19 +1360,19 @@
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>50</v>
@@ -1393,19 +1393,19 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
@@ -1452,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1565,90 +1565,90 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S11" t="n">
         <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="U11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="V11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W11" t="n">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.2</v>
+        <v>8.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AD11" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1683,90 +1683,90 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.4</v>
       </c>
-      <c r="M12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S12" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T12" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="U12" t="n">
-        <v>8.800000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="V12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z12" t="n">
         <v>8</v>
       </c>
-      <c r="W12" t="n">
-        <v>21</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
         <v>19</v>
       </c>
-      <c r="Y12" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>27</v>
-      </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1801,86 +1801,90 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R13" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="T13" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="U13" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="V13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>8.25</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="n">
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2540,16 +2544,16 @@
         <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2662,10 +2666,10 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
         <v>2.1</v>
@@ -3266,10 +3270,10 @@
         <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3394,10 +3398,10 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
         <v>1.8</v>
@@ -4111,86 +4115,86 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M32" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="T32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U32" t="n">
         <v>6.9</v>
-      </c>
-      <c r="U32" t="n">
-        <v>7.7</v>
       </c>
       <c r="V32" t="n">
         <v>6.9</v>
       </c>
       <c r="W32" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="X32" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA32" t="n">
         <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
         <v>45</v>
       </c>
       <c r="AD32" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE32" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4480,10 +4484,10 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M35" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
         <v>1.55</v>
@@ -4583,90 +4587,90 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="H36" t="n">
         <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="U36" t="n">
-        <v>11.5</v>
+        <v>8.75</v>
       </c>
       <c r="V36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -4700,36 +4704,88 @@
           <t>Neom SC</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.45</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.88</v>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>40</v>
+      </c>
+      <c r="V37" t="n">
+        <v>20</v>
+      </c>
+      <c r="W37" t="n">
+        <v>120</v>
+      </c>
+      <c r="X37" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4825,19 +4881,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I39" t="n">
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
         <v>1.18</v>
@@ -4873,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -4888,7 +4944,7 @@
         <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>67</v>
@@ -4897,7 +4953,7 @@
         <v>401</v>
       </c>
       <c r="AE39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF39" t="n">
         <v>51</v>
@@ -4906,10 +4962,10 @@
         <v>29</v>
       </c>
       <c r="AH39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -1102,7 +1102,7 @@
         <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
         <v>2.75</v>
@@ -1196,36 +1196,92 @@
           <t>Leones del Norte</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>30</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1258,36 +1314,96 @@
           <t>Imbabura</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1321,94 +1437,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K9" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T9" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U9" t="n">
         <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="W9" t="n">
         <v>40</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF9" t="n">
         <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1443,19 +1559,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1470,7 +1586,7 @@
         <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1485,7 +1601,7 @@
         <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1506,7 +1622,7 @@
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
@@ -1521,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
@@ -1565,81 +1681,81 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="T11" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA11" t="n">
         <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>55</v>
@@ -2062,10 +2178,10 @@
         <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2660,10 +2776,10 @@
         <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2672,10 +2788,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -3017,7 +3133,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
@@ -3038,22 +3154,22 @@
         <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
@@ -3071,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3089,7 +3205,7 @@
         <v>126</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -4115,13 +4231,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -4140,37 +4256,37 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S32" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T32" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U32" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="V32" t="n">
         <v>6.9</v>
       </c>
       <c r="W32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
         <v>11.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
         <v>45</v>
@@ -4185,7 +4301,7 @@
         <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>60</v>
@@ -4256,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q33" t="n">
         <v>3.25</v>
@@ -4587,42 +4703,42 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="O36" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T36" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U36" t="n">
         <v>8.75</v>
@@ -4631,19 +4747,19 @@
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB36" t="n">
         <v>15.5</v>
@@ -4655,10 +4771,10 @@
         <v>700</v>
       </c>
       <c r="AE36" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -4667,7 +4783,7 @@
         <v>55</v>
       </c>
       <c r="AI36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="n">
         <v>45</v>
@@ -4818,36 +4934,84 @@
           <t>DPMM</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>9</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4890,22 +5054,22 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O39" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P39" t="n">
         <v>1.29</v>
@@ -4914,10 +5078,10 @@
         <v>3.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T39" t="n">
         <v>7.5</v>
@@ -4929,7 +5093,7 @@
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -4944,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -1096,13 +1096,13 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
         <v>2.75</v>
@@ -1197,16 +1197,20 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
       <c r="L7" t="n">
         <v>1.39</v>
       </c>
@@ -1220,67 +1224,67 @@
         <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T7" t="n">
         <v>7.3</v>
       </c>
       <c r="U7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V7" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="n">
         <v>800</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1315,13 +1319,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1330,16 +1334,16 @@
         <v>5.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N8" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.57</v>
@@ -1348,58 +1352,58 @@
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="n">
         <v>65</v>
@@ -1559,7 +1563,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1568,10 +1572,10 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1583,10 +1587,10 @@
         <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1595,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1681,33 +1685,33 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R11" t="n">
         <v>1.93</v>
@@ -1719,28 +1723,28 @@
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="V11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>60</v>
@@ -1749,22 +1753,22 @@
         <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1799,13 +1803,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1816,7 +1820,7 @@
         <v>2.85</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
@@ -1834,22 +1838,22 @@
         <v>1.82</v>
       </c>
       <c r="T12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
@@ -1867,22 +1871,22 @@
         <v>450</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1917,33 +1921,33 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R13" t="n">
         <v>2.14</v>
@@ -1952,55 +1956,55 @@
         <v>1.63</v>
       </c>
       <c r="T13" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="U13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="V13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W13" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="n">
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2044,13 +2048,13 @@
         <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
         <v>8.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -2059,7 +2063,7 @@
         <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2166,13 +2170,13 @@
         <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>2.5</v>
@@ -2181,7 +2185,7 @@
         <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2288,22 +2292,22 @@
         <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
         <v>6.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N16" t="n">
         <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2410,13 +2414,13 @@
         <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>3.25</v>
@@ -2425,7 +2429,7 @@
         <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2532,22 +2536,22 @@
         <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N18" t="n">
         <v>2.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2669,7 +2673,7 @@
         <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2788,10 +2792,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2898,10 +2902,10 @@
         <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -2913,7 +2917,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3035,7 +3039,7 @@
         <v>2.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3148,28 +3152,28 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
@@ -3187,7 +3191,7 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3205,7 +3209,7 @@
         <v>126</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -4121,7 +4125,7 @@
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4372,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q33" t="n">
         <v>3.25</v>
@@ -4706,51 +4710,51 @@
         <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="N36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T36" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V36" t="n">
         <v>8.75</v>
-      </c>
-      <c r="V36" t="n">
-        <v>8.5</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
         <v>32</v>
@@ -4762,22 +4766,22 @@
         <v>6.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD36" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>55</v>
@@ -4786,7 +4790,7 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -4943,29 +4947,41 @@
       <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>34</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
       <c r="N38" t="n">
         <v>1.29</v>
       </c>
       <c r="O38" t="n">
         <v>3.6</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S38" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="T38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V38" t="n">
         <v>9</v>
@@ -4974,43 +4990,43 @@
         <v>13</v>
       </c>
       <c r="X38" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD38" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF38" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -1096,10 +1096,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1197,94 +1197,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="T7" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="U7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA7" t="n">
         <v>5.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD7" t="n">
         <v>800</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1352,22 +1352,22 @@
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1385,19 +1385,19 @@
         <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>55</v>
@@ -1441,19 +1441,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="L9" t="n">
         <v>1.7</v>
@@ -1462,22 +1462,22 @@
         <v>2.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
         <v>5.9</v>
@@ -1486,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
         <v>40</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>120</v>
@@ -1513,10 +1513,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1572,13 +1572,13 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>2.75</v>
@@ -1587,7 +1587,7 @@
         <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1921,27 +1921,27 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -1950,61 +1950,61 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S13" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
-        <v>4.85</v>
+        <v>5.6</v>
       </c>
       <c r="U13" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W13" t="n">
         <v>9.25</v>
       </c>
       <c r="X13" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>25</v>
       </c>
-      <c r="Z13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
         <v>75</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>80</v>
       </c>
       <c r="AI13" t="n">
         <v>45</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2048,13 +2048,13 @@
         <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -2063,7 +2063,7 @@
         <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2170,13 +2170,13 @@
         <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>2.5</v>
@@ -2185,7 +2185,7 @@
         <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2283,16 +2283,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
         <v>6.5</v>
@@ -2301,13 +2301,13 @@
         <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2340,7 +2340,7 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2349,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
@@ -2414,13 +2414,13 @@
         <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>3.25</v>
@@ -2429,7 +2429,7 @@
         <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2527,46 +2527,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.5</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2593,10 +2593,10 @@
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE18" t="n">
         <v>7</v>
@@ -2673,7 +2673,7 @@
         <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2792,10 +2792,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2917,7 +2917,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3030,13 +3030,13 @@
         <v>6.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -3152,28 +3152,28 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
@@ -3191,7 +3191,7 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3209,7 +3209,7 @@
         <v>126</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3625,13 +3625,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
@@ -3640,16 +3640,16 @@
         <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3658,10 +3658,10 @@
         <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
         <v>8</v>
@@ -3694,10 +3694,10 @@
         <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>11</v>
@@ -3756,22 +3756,22 @@
         <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
         <v>1.53</v>
@@ -3890,10 +3890,10 @@
         <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -4471,13 +4471,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.85</v>
+        <v>2.27</v>
       </c>
       <c r="J34" t="n">
         <v>1.11</v>
@@ -4486,46 +4486,46 @@
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="N34" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S34" t="n">
         <v>1.65</v>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="U34" t="n">
-        <v>11.25</v>
+        <v>15.5</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z34" t="n">
         <v>6</v>
@@ -4543,22 +4543,22 @@
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>3.7</v>
@@ -4718,16 +4718,16 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="N36" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
         <v>1.42</v>
@@ -4736,52 +4736,52 @@
         <v>2.47</v>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S36" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T36" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="U36" t="n">
+        <v>9</v>
+      </c>
+      <c r="V36" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>8.75</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF36" t="n">
         <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
         <v>55</v>
@@ -4790,7 +4790,7 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -4947,14 +4947,10 @@
       <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K38" t="n">
-        <v>34</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="M38" t="n">
         <v>9</v>
@@ -5070,13 +5066,13 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5183,22 +5179,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
         <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
         <v>3.5</v>
@@ -5210,10 +5206,10 @@
         <v>1.88</v>
       </c>
       <c r="P40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>1.8</v>
@@ -5225,7 +5221,7 @@
         <v>7.5</v>
       </c>
       <c r="U40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
@@ -5234,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
@@ -5258,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
@@ -5267,7 +5263,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -1096,10 +1096,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.7</v>
@@ -1480,25 +1480,25 @@
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1513,10 +1513,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1572,13 +1572,13 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>2.75</v>
@@ -1632,7 +1632,7 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE10" t="n">
         <v>8</v>
@@ -1932,10 +1932,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N13" t="n">
         <v>1.8</v>
@@ -1950,10 +1950,10 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T13" t="n">
         <v>5.6</v>
@@ -2170,10 +2170,10 @@
         <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2188,10 +2188,10 @@
         <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
         <v>2.1</v>
@@ -2203,10 +2203,10 @@
         <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
         <v>29</v>
@@ -2292,10 +2292,10 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2417,7 +2417,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2459,10 +2459,10 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>7</v>
@@ -2474,7 +2474,7 @@
         <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -2536,37 +2536,37 @@
         <v>2.63</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2593,10 +2593,10 @@
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE18" t="n">
         <v>7</v>
@@ -2611,7 +2611,7 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2658,10 +2658,10 @@
         <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -2670,10 +2670,10 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -3024,10 +3024,10 @@
         <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3048,13 +3048,13 @@
         <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
         <v>12</v>
@@ -3072,7 +3072,7 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -3081,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
@@ -3093,13 +3093,13 @@
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
         <v>41</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3158,10 +3158,10 @@
         <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3176,13 +3176,13 @@
         <v>2.25</v>
       </c>
       <c r="T23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>29</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3218,13 +3218,13 @@
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3381,13 +3381,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3402,25 +3402,25 @@
         <v>2.63</v>
       </c>
       <c r="N25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P25" t="n">
         <v>1.53</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
@@ -3438,7 +3438,7 @@
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3518,10 +3518,10 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>1.8</v>
@@ -3652,19 +3652,19 @@
         <v>1.75</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
@@ -3682,10 +3682,10 @@
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
@@ -3694,16 +3694,16 @@
         <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF27" t="n">
         <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
@@ -3712,7 +3712,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3890,10 +3890,10 @@
         <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3911,13 +3911,13 @@
         <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V29" t="n">
         <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -3932,16 +3932,16 @@
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -3991,19 +3991,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4042,10 +4042,10 @@
         <v>29</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>9.5</v>
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -4125,7 +4125,7 @@
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4152,7 +4152,7 @@
         <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U31" t="n">
         <v>10</v>
@@ -4188,7 +4188,7 @@
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4471,49 +4471,49 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="J34" t="n">
         <v>1.11</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="N34" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T34" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V34" t="n">
         <v>13</v>
@@ -4522,13 +4522,13 @@
         <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="n">
         <v>60</v>
       </c>
       <c r="Z34" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4543,19 +4543,19 @@
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>50</v>
@@ -4947,10 +4947,14 @@
       <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>34</v>
+      </c>
       <c r="L38" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M38" t="n">
         <v>9</v>
@@ -5066,13 +5070,13 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5179,16 +5183,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
         <v>11</v>
@@ -5197,13 +5201,13 @@
         <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.98</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.88</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5212,13 +5216,13 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
         <v>9</v>
@@ -5233,25 +5237,25 @@
         <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
@@ -5263,10 +5267,10 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -906,16 +906,16 @@
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="N4" t="n">
         <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P4" t="n">
         <v>1.31</v>
@@ -924,37 +924,37 @@
         <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V4" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
         <v>40</v>
@@ -963,22 +963,22 @@
         <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1096,10 +1096,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1587,7 +1587,7 @@
         <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1702,49 +1702,49 @@
         <v>3.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="V11" t="n">
         <v>7</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y11" t="n">
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>60</v>
@@ -1753,22 +1753,22 @@
         <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1935,13 +1935,13 @@
         <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -1950,10 +1950,10 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="T13" t="n">
         <v>5.6</v>
@@ -1962,16 +1962,16 @@
         <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>9.75</v>
@@ -1983,28 +1983,28 @@
         <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD13" t="n">
         <v>450</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
@@ -2417,7 +2417,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2426,16 +2426,16 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
         <v>2.05</v>
@@ -2462,7 +2462,7 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>7</v>
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2551,7 +2551,7 @@
         <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J19" t="n">
         <v>1.06</v>
@@ -2670,10 +2670,10 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2771,19 +2771,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2792,10 +2792,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2819,16 +2819,16 @@
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
+        <v>23</v>
+      </c>
+      <c r="X20" t="n">
         <v>21</v>
-      </c>
-      <c r="X20" t="n">
-        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2840,7 +2840,7 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -2849,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>34</v>
@@ -2893,19 +2893,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -2917,7 +2917,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -2935,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
@@ -2944,7 +2944,7 @@
         <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -2965,16 +2965,16 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J22" t="n">
         <v>1.13</v>
@@ -3039,7 +3039,7 @@
         <v>2.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3158,7 +3158,7 @@
         <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O23" t="n">
         <v>2.15</v>
@@ -3265,7 +3265,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3274,16 +3274,16 @@
         <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3390,16 +3390,16 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
         <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N25" t="n">
         <v>2.5</v>
@@ -3512,13 +3512,13 @@
         <v>2.05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3634,13 +3634,13 @@
         <v>2.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
         <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>3.25</v>
@@ -3756,16 +3756,16 @@
         <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N28" t="n">
         <v>2.4</v>
@@ -3878,13 +3878,13 @@
         <v>2.63</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
         <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
         <v>3.4</v>
@@ -4000,13 +4000,13 @@
         <v>2.55</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
         <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
         <v>3.4</v>
@@ -4113,22 +4113,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
         <v>9.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
         <v>3.25</v>
@@ -4155,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
@@ -4164,7 +4164,7 @@
         <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -4194,13 +4194,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="n">
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4349,13 +4349,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4391,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V33" t="n">
         <v>10</v>
@@ -4433,7 +4433,7 @@
         <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>26</v>
@@ -4471,67 +4471,67 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="L34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.52</v>
       </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.42</v>
       </c>
-      <c r="N34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T34" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="U34" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="V34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W34" t="n">
+        <v>55</v>
+      </c>
+      <c r="X34" t="n">
         <v>45</v>
       </c>
-      <c r="X34" t="n">
-        <v>37</v>
-      </c>
       <c r="Y34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -4543,19 +4543,19 @@
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
         <v>50</v>
@@ -4960,7 +4960,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O38" t="n">
         <v>3.6</v>
@@ -5082,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O39" t="n">
         <v>2.35</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -796,10 +796,10 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>2.38</v>
@@ -811,7 +811,7 @@
         <v>5.5</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -841,13 +841,13 @@
         <v>101</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1352,25 +1352,25 @@
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V8" t="n">
         <v>9.25</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>45</v>
@@ -1379,10 +1379,10 @@
         <v>6.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
@@ -1391,22 +1391,22 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1578,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -1924,7 +1924,7 @@
         <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>5.7</v>
@@ -1938,7 +1938,7 @@
         <v>3.2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.82</v>
@@ -1956,43 +1956,43 @@
         <v>1.71</v>
       </c>
       <c r="T13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="V13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>10.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>65</v>
       </c>
       <c r="AD13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2414,10 +2414,10 @@
         <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2426,10 +2426,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.57</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2551,7 +2551,7 @@
         <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.06</v>
@@ -2670,10 +2670,10 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2795,7 +2795,7 @@
         <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2893,19 +2893,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -2917,7 +2917,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.65</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3039,7 +3039,7 @@
         <v>2.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3158,7 +3158,7 @@
         <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
         <v>2.15</v>
@@ -3265,7 +3265,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3280,10 +3280,10 @@
         <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3390,16 +3390,16 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
         <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="N25" t="n">
         <v>2.5</v>
@@ -3512,13 +3512,13 @@
         <v>2.05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3634,13 +3634,13 @@
         <v>2.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
         <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>3.25</v>
@@ -3756,16 +3756,16 @@
         <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
         <v>2.4</v>
@@ -3896,7 +3896,7 @@
         <v>1.83</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q29" t="n">
         <v>2.75</v>
@@ -4018,7 +4018,7 @@
         <v>1.83</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q30" t="n">
         <v>2.75</v>
@@ -4140,7 +4140,7 @@
         <v>1.75</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q31" t="n">
         <v>2.75</v>
@@ -4364,16 +4364,16 @@
         <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4391,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
         <v>10</v>
@@ -4433,7 +4433,7 @@
         <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>26</v>
@@ -4442,7 +4442,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CIQvGQWh</t>
+          <t>fs8t2oig</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4452,233 +4452,241 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Metaloglobus Bucharest</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Arges</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.5</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>2.5</v>
       </c>
-      <c r="N34" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.42</v>
-      </c>
       <c r="R34" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="U34" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W34" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="X34" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pO6Z6beU</t>
+          <t>neZI2SS6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>30/04/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="H35" t="n">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11</v>
+      </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+        <v>1.95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S35" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="U35" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="n">
         <v>11</v>
       </c>
-      <c r="Y35" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AA35" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AE35" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KU0rR1tn</t>
+          <t>M5RkaEwC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4688,73 +4696,77 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.3</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T36" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>29</v>
@@ -4763,40 +4775,40 @@
         <v>9</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tpkiPuBb</t>
+          <t>CIQvGQWh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4806,111 +4818,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Metaloglobus Bucharest</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>FC Arges</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K37" t="n">
         <v>6.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="n">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="N37" t="n">
-        <v>1.72</v>
+        <v>2.37</v>
       </c>
       <c r="O37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+        <v>1.55</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.45</v>
+      </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>8.75</v>
       </c>
       <c r="U37" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="V37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>70</v>
+      </c>
+      <c r="X37" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI37" t="n">
         <v>20</v>
       </c>
-      <c r="W37" t="n">
-        <v>120</v>
-      </c>
-      <c r="X37" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0hndzEpI</t>
+          <t>pO6Z6beU</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4920,119 +4940,111 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H38" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K38" t="n">
-        <v>34</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="U38" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AD38" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>b1elN8jU</t>
+          <t>KU0rR1tn</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5042,234 +5054,588 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="H39" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T39" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U39" t="n">
+        <v>9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W39" t="n">
         <v>17</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>9</v>
-      </c>
-      <c r="W39" t="n">
-        <v>8</v>
-      </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="n">
-        <v>401</v>
+        <v>700</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>9.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="AI39" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>tpkiPuBb</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Neom SC</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T40" t="n">
+        <v>16</v>
+      </c>
+      <c r="U40" t="n">
+        <v>40</v>
+      </c>
+      <c r="V40" t="n">
+        <v>20</v>
+      </c>
+      <c r="W40" t="n">
+        <v>120</v>
+      </c>
+      <c r="X40" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0hndzEpI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Geylang</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DPMM</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>34</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T41" t="n">
+        <v>15</v>
+      </c>
+      <c r="U41" t="n">
+        <v>12</v>
+      </c>
+      <c r="V41" t="n">
+        <v>9</v>
+      </c>
+      <c r="W41" t="n">
+        <v>13</v>
+      </c>
+      <c r="X41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>b1elN8jU</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Oster</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>8</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>8dA0ETKM</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>29/04/2025</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Falkenberg</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Orebro</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G43" t="n">
         <v>1.85</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>3.5</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>3.9</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J43" t="n">
         <v>1.05</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K43" t="n">
         <v>11</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>1.25</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M43" t="n">
         <v>3.75</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N43" t="n">
         <v>1.88</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O43" t="n">
         <v>1.98</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R43" t="n">
         <v>1.75</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S43" t="n">
         <v>2</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T43" t="n">
         <v>8</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U43" t="n">
         <v>9</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V43" t="n">
         <v>8.5</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W43" t="n">
         <v>17</v>
       </c>
-      <c r="X40" t="n">
+      <c r="X43" t="n">
         <v>15</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y43" t="n">
         <v>23</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="Z43" t="n">
         <v>11</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AA43" t="n">
         <v>7</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB43" t="n">
         <v>15</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AC43" t="n">
         <v>41</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AD43" t="n">
         <v>201</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AE43" t="n">
         <v>12</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF43" t="n">
         <v>21</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG43" t="n">
         <v>13</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AH43" t="n">
         <v>41</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AI43" t="n">
         <v>29</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AJ43" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -894,10 +894,10 @@
         <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -906,16 +906,16 @@
         <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="N4" t="n">
         <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="P4" t="n">
         <v>1.31</v>
@@ -930,10 +930,10 @@
         <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V4" t="n">
         <v>12.5</v>
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
@@ -957,16 +957,16 @@
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="n">
         <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG4" t="n">
         <v>8.25</v>
@@ -1563,31 +1563,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1611,7 +1611,7 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1632,7 +1632,7 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE10" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
@@ -1696,10 +1696,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N11" t="n">
         <v>1.93</v>
@@ -1714,10 +1714,10 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="S11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="T11" t="n">
         <v>5.3</v>
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>1.11</v>
@@ -2212,7 +2212,7 @@
         <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -2236,13 +2236,13 @@
         <v>6.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2292,22 +2292,22 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2316,13 +2316,13 @@
         <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
         <v>11</v>
@@ -2331,16 +2331,16 @@
         <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2349,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
@@ -2420,10 +2420,10 @@
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2548,25 +2548,25 @@
         <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
@@ -2584,13 +2584,13 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2599,7 +2599,7 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
@@ -2608,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -2670,10 +2670,10 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2780,10 +2780,10 @@
         <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2792,10 +2792,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3176,13 +3176,13 @@
         <v>2.25</v>
       </c>
       <c r="T23" t="n">
+        <v>12</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17</v>
+      </c>
+      <c r="V23" t="n">
         <v>11</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>29</v>
@@ -3197,10 +3197,10 @@
         <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>41</v>
@@ -3218,7 +3218,7 @@
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -3402,16 +3402,16 @@
         <v>2.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
         <v>2.1</v>
@@ -3426,25 +3426,25 @@
         <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>67</v>
@@ -3453,7 +3453,7 @@
         <v>1250</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3524,10 +3524,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3542,10 +3542,10 @@
         <v>2.1</v>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
         <v>12</v>
@@ -3554,13 +3554,13 @@
         <v>34</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -3587,7 +3587,7 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -3646,13 +3646,13 @@
         <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q27" t="n">
         <v>2.75</v>
@@ -3747,37 +3747,37 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R28" t="n">
         <v>2.1</v>
@@ -3786,10 +3786,10 @@
         <v>1.67</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>11</v>
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
         <v>19</v>
@@ -3819,7 +3819,7 @@
         <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF28" t="n">
         <v>12</v>
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
         <v>26</v>
@@ -3878,13 +3878,13 @@
         <v>2.63</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
         <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
         <v>3.4</v>
@@ -3991,31 +3991,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
         <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
         <v>1.37</v>
@@ -4048,16 +4048,16 @@
         <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
         <v>201</v>
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -4122,13 +4122,13 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>3.25</v>
@@ -4564,17 +4564,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>neZI2SS6</t>
+          <t>M5RkaEwC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4584,76 +4584,76 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U35" t="n">
+        <v>10</v>
+      </c>
+      <c r="V35" t="n">
         <v>9.5</v>
       </c>
-      <c r="V35" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W35" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
@@ -4662,31 +4662,31 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AF35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>M5RkaEwC</t>
+          <t>CIQvGQWh</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4696,119 +4696,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Metaloglobus Bucharest</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>FC Arges</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R36" t="n">
         <v>2.15</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S36" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>80</v>
+      </c>
+      <c r="X36" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG36" t="n">
         <v>9.5</v>
       </c>
-      <c r="W36" t="n">
-        <v>21</v>
-      </c>
-      <c r="X36" t="n">
+      <c r="AH36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI36" t="n">
         <v>19</v>
       </c>
-      <c r="Y36" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CIQvGQWh</t>
+          <t>pO6Z6beU</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4818,119 +4818,111 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Metaloglobus Bucharest</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FC Arges</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.05</v>
+        <v>1.47</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>4.35</v>
       </c>
       <c r="I37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6.2</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
-        <v>2.57</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>2.37</v>
+        <v>1.55</v>
       </c>
       <c r="O37" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.45</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="T37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA37" t="n">
         <v>8.75</v>
       </c>
-      <c r="U37" t="n">
-        <v>21</v>
-      </c>
-      <c r="V37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W37" t="n">
-        <v>70</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="AB37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>50</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pO6Z6beU</t>
+          <t>KU0rR1tn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4940,7 +4932,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4950,101 +4942,105 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.47</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="n">
-        <v>4.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="N38" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="O38" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S38" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T38" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="U38" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="V38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.75</v>
+        <v>6.4</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE38" t="n">
-        <v>18</v>
+        <v>9.75</v>
       </c>
       <c r="AF38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI38" t="n">
         <v>37</v>
       </c>
-      <c r="AG38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KU0rR1tn</t>
+          <t>tpkiPuBb</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5054,7 +5050,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5064,105 +5060,101 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.93</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>4.15</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>1.45</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M39" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="O39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.47</v>
-      </c>
+        <v>1.88</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="T39" t="n">
-        <v>6.9</v>
+        <v>16</v>
       </c>
       <c r="U39" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="Y39" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.4</v>
+        <v>8.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD39" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH39" t="n">
         <v>9.75</v>
       </c>
-      <c r="AF39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>55</v>
-      </c>
       <c r="AI39" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="AJ39" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>tpkiPuBb</t>
+          <t>0hndzEpI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5172,111 +5164,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>DPMM</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="I40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K40" t="n">
+        <v>34</v>
+      </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="M40" t="n">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N40" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="O40" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U40" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="Z40" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AB40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
         <v>19</v>
       </c>
-      <c r="AC40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH40" t="n">
-        <v>9.75</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0hndzEpI</t>
+          <t>b1elN8jU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5286,119 +5286,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I41" t="n">
+        <v>11</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K41" t="n">
+        <v>17</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K41" t="n">
-        <v>34</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M41" t="n">
-        <v>9</v>
-      </c>
       <c r="N41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P41" t="n">
         <v>1.29</v>
       </c>
-      <c r="O41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.13</v>
-      </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="U41" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="V41" t="n">
         <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI41" t="n">
         <v>81</v>
       </c>
-      <c r="AE41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b1elN8jU</t>
+          <t>8dA0ETKM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5413,229 +5413,107 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Falkenberg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Orebro</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K42" t="n">
         <v>11</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>9</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W42" t="n">
         <v>17</v>
       </c>
-      <c r="L42" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V42" t="n">
-        <v>9</v>
-      </c>
-      <c r="W42" t="n">
-        <v>8</v>
-      </c>
       <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" t="n">
         <v>11</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="n">
         <v>29</v>
       </c>
-      <c r="Z42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8dA0ETKM</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>29/04/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Falkenberg</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Orebro</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
-      <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
-        <v>9</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>17</v>
-      </c>
-      <c r="X43" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ43" t="n">
         <v>34</v>
       </c>
     </row>
